--- a/biology/Médecine/Bernard_de_Gordon/Bernard_de_Gordon.xlsx
+++ b/biology/Médecine/Bernard_de_Gordon/Bernard_de_Gordon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard de Gordon est un médecin français actif à Montpellier dans la seconde moitié du XIIIe siècle et au tout début du XIVe siècle. Son œuvre la plus connue est le Lilium medicine.
 </t>
@@ -511,7 +523,9 @@
           <t>Ses origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie de Bernard de Gordon est peu connue, car les seules sources dont nous disposons sont les quelques détails biographiques qu’il nous a laissés dans son œuvre. L’étude la plus complète et la plus détaillée de la vie de ce médecin est due au livre de Luke E. Demaitre, Doctor Bernard de Gordon : Professor and practitioner.
 La date et le lieu de naissance de Bernard de Gordon n’étant pas connus, plusieurs hypothèses ont été évoquées. Pendant longtemps, l’hypothèse considérée comme la plus probable fut celle de son origine écossaise. Ainsi, Ernest Wickersheimer, dans son Dictionnaire biographique des médecins en France au Moyen Âge, appuie cette hypothèse par le fait que Chaucer, dans ses Contes de Canterbury (au vers 434) cite trois médecins contemporains : Bernard de Gordon, Gilbertus Anglicus et Jean de Gaddesden.
@@ -550,7 +564,9 @@
           <t>Sa carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La période allant de 1283 à 1308 est la mieux documentée de sa vie. Elle correspond aux années où Gordon exerce la charge de maître au studium de Montpellier, puisqu’il fut maitre-régent dès 1283 et probablement doyen du studium generale de l'université de Montpellier après 1289.
 Malgré la grande réputation de Gordon dans le milieu médical, sa présence n’a laissé aucune trace dans les statuts de l’Université, qui mentionnent pourtant les noms de vingt-cinq maîtres entre 1289 et 1319. Le silence des statuts peut être fortuit, mais il en est de même pour les autres archives (en dehors de quelques témoignages sur la pratique réelle de Bernard de Gordon, il n’y a, par exemple, aucune note de cours).
@@ -585,7 +601,9 @@
           <t>Sa production scientifique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour sa biographie, l’étude la plus détaillée à l’heure actuelle est celle de Luke Demaitre. En se basant sur son livre, voici la liste des ouvrages de Bernard de Gordon :
 De Regimine acutorum morborum (1294).
